--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2251.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2251.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206610837273401</v>
+        <v>1.147174835205078</v>
       </c>
       <c r="B1">
-        <v>2.349928240313998</v>
+        <v>2.636829614639282</v>
       </c>
       <c r="C1">
-        <v>7.164760517588901</v>
+        <v>5.839153289794922</v>
       </c>
       <c r="D1">
-        <v>2.390272699514196</v>
+        <v>2.088707208633423</v>
       </c>
       <c r="E1">
-        <v>1.173401117515749</v>
+        <v>1.202476382255554</v>
       </c>
     </row>
   </sheetData>
